--- a/Master/MasterData/InstanceInfo.xlsx
+++ b/Master/MasterData/InstanceInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t xml:space="preserve">$SERVER_ONLY</t>
   </si>
@@ -31,10 +31,22 @@
     <t xml:space="preserve">BossId</t>
   </si>
   <si>
+    <t xml:space="preserve">BossX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BossY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BossZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ExitWarpDataId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -242,17 +254,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:D63"/>
+  <dimension ref="A4:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,21 +282,39 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1</v>
@@ -293,6 +323,15 @@
         <v>9</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>-620</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>660</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="G8" s="4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -300,276 +339,441 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/InstanceInfo.xlsx
+++ b/Master/MasterData/InstanceInfo.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">BossZ</t>
   </si>
   <si>
-    <t xml:space="preserve">ExitWarpDataId</t>
+    <t xml:space="preserve">ExitWarpPointId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -257,7 +257,7 @@
   <dimension ref="A4:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
